--- a/results/results_formatted/evaluation_lineFollowing20_run4_formatted.xlsx
+++ b/results/results_formatted/evaluation_lineFollowing20_run4_formatted.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamza\Desktop\bro usb n papa\results (line following)\editted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HaZa\Music\APP-RAS paper results\analysis\results (line following)\formatted\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B189A28-BE7B-4B3E-909F-22D053F2BC40}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="evaluation_lineFollowing20_run4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="29">
   <si>
     <t>charging</t>
   </si>
@@ -92,11 +101,26 @@
   <si>
     <t>Final Battery level (battery when task finished)</t>
   </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>Waiting Time</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Charging</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,8 +437,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -529,6 +559,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -574,9 +619,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -897,29 +948,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M140"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="H146" sqref="H146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -960,7 +1011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -992,7 +1043,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1024,7 +1075,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1056,7 +1107,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1088,7 +1139,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1171,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1203,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1184,7 +1235,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,7 +1276,7 @@
         <v>62.73</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1266,7 +1317,7 @@
         <v>65.760000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1307,7 +1358,7 @@
         <v>63.11</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1348,7 +1399,7 @@
         <v>66.349999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1389,7 +1440,7 @@
         <v>70.55</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1430,7 +1481,7 @@
         <v>63.13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1471,7 +1522,7 @@
         <v>38.17</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1512,7 +1563,7 @@
         <v>46.88</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1553,7 +1604,7 @@
         <v>42.58</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -1594,7 +1645,7 @@
         <v>30.92</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -1635,7 +1686,7 @@
         <v>43.38</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -1676,7 +1727,7 @@
         <v>16.89</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -1717,7 +1768,7 @@
         <v>38.130000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -1758,7 +1809,7 @@
         <v>23.31</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1799,7 +1850,7 @@
         <v>12.45</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -1840,7 +1891,7 @@
         <v>6.36</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -1881,7 +1932,7 @@
         <v>18.61</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -1922,7 +1973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -1963,7 +2014,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1995,7 +2046,7 @@
         <v>29.52</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2027,7 +2078,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -2068,7 +2119,7 @@
         <v>16.850000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -2100,7 +2151,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -2132,7 +2183,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -2164,7 +2215,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -2196,7 +2247,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -2228,7 +2279,7 @@
         <v>28.15</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -2269,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -2310,7 +2361,7 @@
         <v>67.319999999999993</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -2351,7 +2402,7 @@
         <v>64.06</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -2392,7 +2443,7 @@
         <v>69.849999999999994</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -2433,7 +2484,7 @@
         <v>72.7</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -2474,7 +2525,7 @@
         <v>40.22</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -2515,7 +2566,7 @@
         <v>64.22</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -2547,7 +2598,7 @@
         <v>29.65</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -2588,7 +2639,7 @@
         <v>50.33</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -2629,7 +2680,7 @@
         <v>45.72</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -2670,7 +2721,7 @@
         <v>31.54</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -2711,7 +2762,7 @@
         <v>19.079999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -2752,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -2793,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -2834,7 +2885,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -2875,7 +2926,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -2916,7 +2967,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -2957,7 +3008,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -2989,7 +3040,7 @@
         <v>28.65</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -3021,7 +3072,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -3062,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -3094,7 +3145,7 @@
         <v>29.12</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -3135,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -3176,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -3217,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -3258,7 +3309,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -3299,7 +3350,7 @@
         <v>62.53</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -3331,7 +3382,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -3363,7 +3414,7 @@
         <v>28.15</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -3404,7 +3455,7 @@
         <v>75.39</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -3445,7 +3496,7 @@
         <v>60.57</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -3477,7 +3528,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -3509,7 +3560,7 @@
         <v>30.45</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -3541,7 +3592,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -3582,7 +3633,7 @@
         <v>29.41</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -3623,7 +3674,7 @@
         <v>53.93</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -3664,7 +3715,7 @@
         <v>48.01</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -3705,7 +3756,7 @@
         <v>58.07</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -3746,7 +3797,7 @@
         <v>66.739999999999995</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -3787,7 +3838,7 @@
         <v>27.49</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -3828,7 +3879,7 @@
         <v>17.89</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
@@ -3869,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -3910,7 +3961,7 @@
         <v>53.47</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -3951,7 +4002,7 @@
         <v>12.16</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
@@ -3992,7 +4043,7 @@
         <v>20.91</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
@@ -4024,7 +4075,7 @@
         <v>28.41</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -4065,7 +4116,7 @@
         <v>38.72</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
@@ -4106,7 +4157,7 @@
         <v>29.05</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -4147,7 +4198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -4179,7 +4230,7 @@
         <v>28.98</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
@@ -4211,7 +4262,7 @@
         <v>28.25</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
@@ -4243,7 +4294,7 @@
         <v>18.95</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -4284,7 +4335,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -4325,7 +4376,7 @@
         <v>10.07</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
@@ -4357,7 +4408,7 @@
         <v>27.95</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -4398,7 +4449,7 @@
         <v>13.38</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
@@ -4439,7 +4490,7 @@
         <v>41.69</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
@@ -4471,7 +4522,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
@@ -4512,7 +4563,7 @@
         <v>52.29</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
@@ -4553,7 +4604,7 @@
         <v>50.83</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>0</v>
       </c>
@@ -4585,7 +4636,7 @@
         <v>28.54</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>
@@ -4626,7 +4677,7 @@
         <v>69.540000000000006</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>8</v>
       </c>
@@ -4667,7 +4718,7 @@
         <v>60.28</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>8</v>
       </c>
@@ -4708,7 +4759,7 @@
         <v>16.53</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>8</v>
       </c>
@@ -4749,7 +4800,7 @@
         <v>71.209999999999994</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>8</v>
       </c>
@@ -4790,7 +4841,7 @@
         <v>60.35</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>8</v>
       </c>
@@ -4831,7 +4882,7 @@
         <v>14.94</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>8</v>
       </c>
@@ -4872,7 +4923,7 @@
         <v>12.58</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>8</v>
       </c>
@@ -4913,7 +4964,7 @@
         <v>31.13</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>8</v>
       </c>
@@ -4954,7 +5005,7 @@
         <v>54.74</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>8</v>
       </c>
@@ -4995,7 +5046,7 @@
         <v>21.56</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>0</v>
       </c>
@@ -5027,7 +5078,7 @@
         <v>24.77</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>8</v>
       </c>
@@ -5068,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>8</v>
       </c>
@@ -5109,7 +5160,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>0</v>
       </c>
@@ -5141,7 +5192,7 @@
         <v>28.55</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>8</v>
       </c>
@@ -5182,7 +5233,7 @@
         <v>19.47</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>8</v>
       </c>
@@ -5223,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>8</v>
       </c>
@@ -5264,7 +5315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
@@ -5296,7 +5347,7 @@
         <v>28.35</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
@@ -5337,7 +5388,7 @@
         <v>9.33</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>0</v>
       </c>
@@ -5369,7 +5420,7 @@
         <v>23.61</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>8</v>
       </c>
@@ -5410,7 +5461,7 @@
         <v>63.82</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>8</v>
       </c>
@@ -5451,7 +5502,7 @@
         <v>58.12</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>0</v>
       </c>
@@ -5483,7 +5534,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
@@ -5515,7 +5566,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>0</v>
       </c>
@@ -5547,7 +5598,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>8</v>
       </c>
@@ -5588,7 +5639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>8</v>
       </c>
@@ -5629,7 +5680,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>8</v>
       </c>
@@ -5670,7 +5721,7 @@
         <v>47.86</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>8</v>
       </c>
@@ -5711,7 +5762,7 @@
         <v>62.28</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>8</v>
       </c>
@@ -5752,7 +5803,7 @@
         <v>30.92</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>8</v>
       </c>
@@ -5793,7 +5844,7 @@
         <v>55.88</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>0</v>
       </c>
@@ -5825,7 +5876,7 @@
         <v>27.95</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>8</v>
       </c>
@@ -5866,7 +5917,7 @@
         <v>56.09</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>8</v>
       </c>
@@ -5907,7 +5958,7 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>8</v>
       </c>
@@ -5948,7 +5999,7 @@
         <v>49.85</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>8</v>
       </c>
@@ -5989,7 +6040,7 @@
         <v>30.42</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>10</v>
       </c>
@@ -6000,7 +6051,7 @@
         <v>458.85</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>10</v>
       </c>
@@ -6011,7 +6062,7 @@
         <v>316.77</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>10</v>
       </c>
@@ -6022,7 +6073,7 @@
         <v>438.3</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>10</v>
       </c>
@@ -6033,7 +6084,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>10</v>
       </c>
@@ -6044,7 +6095,7 @@
         <v>391.69</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>10</v>
       </c>
@@ -6055,7 +6106,7 @@
         <v>436.19</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>10</v>
       </c>
@@ -6066,7 +6117,7 @@
         <v>456.12</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>10</v>
       </c>
@@ -6075,6 +6126,54 @@
       </c>
       <c r="C140">
         <v>448.54</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E143" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E144" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F144" s="3">
+        <f>COUNTIF(A2:A132,"transportation")</f>
+        <v>93</v>
+      </c>
+      <c r="G144" s="3">
+        <f>AVERAGEIF(A2:A132,"transportation",F2:F132)</f>
+        <v>172.49634408602159</v>
+      </c>
+      <c r="H144" s="3">
+        <f>AVERAGEIF(A2:A132,"transportation",H2:H132)</f>
+        <v>94.802043010752712</v>
+      </c>
+    </row>
+    <row r="145" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E145" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F145" s="3">
+        <f>COUNTIF(A2:A132,"charging")</f>
+        <v>38</v>
+      </c>
+      <c r="G145" s="3">
+        <f>AVERAGEIF(A2:A132,"charging",F2:F132)</f>
+        <v>49.828947368421062</v>
+      </c>
+      <c r="H145" s="3">
+        <f>AVERAGEIF(A2:A132,"charging",H2:H132)</f>
+        <v>0.30605263157894741</v>
       </c>
     </row>
   </sheetData>
